--- a/BN层的行为模式.xlsx
+++ b/BN层的行为模式.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\我的文档\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\programming\python\基础操作\深度学习\MobileNet实例\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144AAE54-D3E7-4F03-83F8-8B947FBB465D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD61F67-0DEB-47E6-B050-C4AFDEA51397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F89A714-C291-49F8-AEE4-F9E58592A12C}"/>
   </bookViews>
@@ -32,11 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>training=False
-learning_phase=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BN层未冻结后行为
 trainable = True</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +79,11 @@
   </si>
   <si>
     <t>training=False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training=False
+learning_phase=0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +569,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,79 +584,79 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
